--- a/CAM-ALTERA_STM/CAM_DVB-CI (08.03.2024 16-16-03)/SM_Project/CAM_DVB-CI/Project Outputs for CAM_DVB-CI/BOM_CAM_DVB-CI.xlsx
+++ b/CAM-ALTERA_STM/CAM_DVB-CI (08.03.2024 16-16-03)/SM_Project/CAM_DVB-CI/Project Outputs for CAM_DVB-CI/BOM_CAM_DVB-CI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CASS\CAM-ALTERA_STM\CAM_DVB-CI (08.03.2024 16-16-03)\SM_Project\CAM_DVB-CI\Project Outputs for CAM_DVB-CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A916FFB-183E-42F3-BA24-87B125760FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A247E5E-B5A0-4672-9631-D0A8CBCCB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20976" windowHeight="10956" xr2:uid="{ECA337FF-5E05-43BC-9CB6-41DFFA8BACB6}"/>
+    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{ECA337FF-5E05-43BC-9CB6-41DFFA8BACB6}"/>
   </bookViews>
   <sheets>
     <sheet name="CAM_DVB-CI" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,12 +553,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -869,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A72C4C8-B4ED-45F9-BC9C-865A6B72691D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,26 +1605,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <v>12</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="5" t="s">
         <v>6</v>
       </c>
     </row>
